--- a/biology/Zoologie/Ctenacanthus/Ctenacanthus.xlsx
+++ b/biology/Zoologie/Ctenacanthus/Ctenacanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenacanthus est un genre éteint de requins préhistoriques de la famille des Ctenacanthidae et de l'ordre des Ctenacanthiformes. Les différents espèces se retrouvent dans des terrains allant du Dévonien au Permien, avec une répartition mondiale.
 L'espèce type est C. major.
-L'espèce Ctenacanthus elegans Tuomey, 1858[2] a été trouvée dans le comté de Lauderdale dans l'Alabama, aux États-Unis, dans une strate du Carbonifère[3].
-Le nom Ctenacanthus brevis Agassiz (1837) est devenu un synonyme d'Avonacanthus Maisey 2010[4]
+L'espèce Ctenacanthus elegans Tuomey, 1858 a été trouvée dans le comté de Lauderdale dans l'Alabama, aux États-Unis, dans une strate du Carbonifère.
+Le nom Ctenacanthus brevis Agassiz (1837) est devenu un synonyme d'Avonacanthus Maisey 2010
 </t>
         </is>
       </c>
